--- a/MP_data.xlsx
+++ b/MP_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/DWS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{730D049B-DCDE-44A8-AA64-1318B393577C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{D03FEFB5-0099-4058-970C-267A3EE24150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3CBBD501-3265-4BF2-B6DA-4D131CBF8CE5}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="23">
   <si>
     <t>Replicates</t>
   </si>
@@ -106,10 +106,7 @@
     <t>final_conc.</t>
   </si>
   <si>
-    <t>Remol_efficiency</t>
-  </si>
-  <si>
-    <t>RE</t>
+    <t>Removal</t>
   </si>
 </sst>
 </file>
@@ -125,15 +122,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -141,13 +144,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -486,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2863EACF-CE4F-4753-90D0-E38F85E80CD2}">
   <dimension ref="A1:V121"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="N80" sqref="N80"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68:E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,18 +1570,7 @@
       <c r="E62" s="1">
         <v>231</v>
       </c>
-      <c r="M62" t="s">
-        <v>6</v>
-      </c>
-      <c r="N62" t="s">
-        <v>7</v>
-      </c>
-      <c r="O62" t="s">
-        <v>8</v>
-      </c>
-      <c r="P62" s="1">
-        <v>231</v>
-      </c>
+      <c r="P62" s="1"/>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
@@ -1577,18 +1585,7 @@
       <c r="E63" s="1">
         <v>229.5</v>
       </c>
-      <c r="M63" t="s">
-        <v>6</v>
-      </c>
-      <c r="N63" t="s">
-        <v>7</v>
-      </c>
-      <c r="O63" t="s">
-        <v>8</v>
-      </c>
-      <c r="P63" s="1">
-        <v>229.5</v>
-      </c>
+      <c r="P63" s="1"/>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
@@ -1603,18 +1600,7 @@
       <c r="E64" s="1">
         <v>229.8</v>
       </c>
-      <c r="M64" t="s">
-        <v>6</v>
-      </c>
-      <c r="N64" t="s">
-        <v>9</v>
-      </c>
-      <c r="O64" t="s">
-        <v>8</v>
-      </c>
-      <c r="P64" s="1">
-        <v>229.8</v>
-      </c>
+      <c r="P64" s="1"/>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
@@ -1629,18 +1615,7 @@
       <c r="E65" s="1">
         <v>227.5</v>
       </c>
-      <c r="M65" t="s">
-        <v>6</v>
-      </c>
-      <c r="N65" t="s">
-        <v>9</v>
-      </c>
-      <c r="O65" t="s">
-        <v>8</v>
-      </c>
-      <c r="P65" s="1">
-        <v>227.5</v>
-      </c>
+      <c r="P65" s="1"/>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
@@ -1655,18 +1630,7 @@
       <c r="E66" s="1">
         <v>231</v>
       </c>
-      <c r="M66" t="s">
-        <v>6</v>
-      </c>
-      <c r="N66" t="s">
-        <v>19</v>
-      </c>
-      <c r="O66" t="s">
-        <v>8</v>
-      </c>
-      <c r="P66" s="1">
-        <v>231</v>
-      </c>
+      <c r="P66" s="1"/>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
@@ -1681,18 +1645,7 @@
       <c r="E67" s="1">
         <v>227.9</v>
       </c>
-      <c r="M67" t="s">
-        <v>6</v>
-      </c>
-      <c r="N67" t="s">
-        <v>19</v>
-      </c>
-      <c r="O67" t="s">
-        <v>8</v>
-      </c>
-      <c r="P67" s="1">
-        <v>227.9</v>
-      </c>
+      <c r="P67" s="1"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
@@ -1707,18 +1660,7 @@
       <c r="E68" s="1">
         <v>228.5</v>
       </c>
-      <c r="M68" t="s">
-        <v>6</v>
-      </c>
-      <c r="N68" t="s">
-        <v>10</v>
-      </c>
-      <c r="O68" t="s">
-        <v>8</v>
-      </c>
-      <c r="P68" s="1">
-        <v>228.5</v>
-      </c>
+      <c r="P68" s="1"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
@@ -1733,18 +1675,7 @@
       <c r="E69" s="1">
         <v>228.9</v>
       </c>
-      <c r="M69" t="s">
-        <v>6</v>
-      </c>
-      <c r="N69" t="s">
-        <v>10</v>
-      </c>
-      <c r="O69" t="s">
-        <v>8</v>
-      </c>
-      <c r="P69" s="1">
-        <v>228.9</v>
-      </c>
+      <c r="P69" s="1"/>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
@@ -1759,18 +1690,7 @@
       <c r="E70" s="1">
         <v>229.7</v>
       </c>
-      <c r="M70" t="s">
-        <v>6</v>
-      </c>
-      <c r="N70" t="s">
-        <v>7</v>
-      </c>
-      <c r="O70" t="s">
-        <v>16</v>
-      </c>
-      <c r="P70" s="1">
-        <v>230.3</v>
-      </c>
+      <c r="P70" s="1"/>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
@@ -1785,18 +1705,7 @@
       <c r="E71" s="1">
         <v>231.7</v>
       </c>
-      <c r="M71" t="s">
-        <v>6</v>
-      </c>
-      <c r="N71" t="s">
-        <v>7</v>
-      </c>
-      <c r="O71" t="s">
-        <v>16</v>
-      </c>
-      <c r="P71" s="1">
-        <v>2225.6999999999998</v>
-      </c>
+      <c r="P71" s="1"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
@@ -1811,18 +1720,7 @@
       <c r="E72" s="1">
         <v>227.3</v>
       </c>
-      <c r="M72" t="s">
-        <v>6</v>
-      </c>
-      <c r="N72" t="s">
-        <v>9</v>
-      </c>
-      <c r="O72" t="s">
-        <v>16</v>
-      </c>
-      <c r="P72" s="1">
-        <v>230.6</v>
-      </c>
+      <c r="P72" s="1"/>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
@@ -1837,18 +1735,7 @@
       <c r="E73" s="1">
         <v>227.5</v>
       </c>
-      <c r="M73" t="s">
-        <v>6</v>
-      </c>
-      <c r="N73" t="s">
-        <v>9</v>
-      </c>
-      <c r="O73" t="s">
-        <v>16</v>
-      </c>
-      <c r="P73" s="1">
-        <v>230.3</v>
-      </c>
+      <c r="P73" s="1"/>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
@@ -1863,18 +1750,7 @@
       <c r="E74" s="1">
         <v>225.5</v>
       </c>
-      <c r="M74" t="s">
-        <v>6</v>
-      </c>
-      <c r="N74" t="s">
-        <v>19</v>
-      </c>
-      <c r="O74" t="s">
-        <v>16</v>
-      </c>
-      <c r="P74" s="1">
-        <v>227.6</v>
-      </c>
+      <c r="P74" s="1"/>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
@@ -1889,18 +1765,7 @@
       <c r="E75" s="1">
         <v>226.5</v>
       </c>
-      <c r="M75" t="s">
-        <v>6</v>
-      </c>
-      <c r="N75" t="s">
-        <v>19</v>
-      </c>
-      <c r="O75" t="s">
-        <v>16</v>
-      </c>
-      <c r="P75" s="1">
-        <v>235.9</v>
-      </c>
+      <c r="P75" s="1"/>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
@@ -1915,18 +1780,7 @@
       <c r="E76" s="1">
         <v>228.4</v>
       </c>
-      <c r="M76" t="s">
-        <v>6</v>
-      </c>
-      <c r="N76" t="s">
-        <v>10</v>
-      </c>
-      <c r="O76" t="s">
-        <v>16</v>
-      </c>
-      <c r="P76" s="1">
-        <v>231.2</v>
-      </c>
+      <c r="P76" s="1"/>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
@@ -1941,18 +1795,7 @@
       <c r="E77" s="1">
         <v>228.6</v>
       </c>
-      <c r="M77" t="s">
-        <v>6</v>
-      </c>
-      <c r="N77" t="s">
-        <v>10</v>
-      </c>
-      <c r="O77" t="s">
-        <v>16</v>
-      </c>
-      <c r="P77" s="1">
-        <v>231.5</v>
-      </c>
+      <c r="P77" s="1"/>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
@@ -1967,18 +1810,7 @@
       <c r="E78" s="1">
         <v>231.4</v>
       </c>
-      <c r="M78" t="s">
-        <v>6</v>
-      </c>
-      <c r="N78" t="s">
-        <v>7</v>
-      </c>
-      <c r="O78" t="s">
-        <v>17</v>
-      </c>
-      <c r="P78" s="1">
-        <v>233.8</v>
-      </c>
+      <c r="P78" s="1"/>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
@@ -1993,18 +1825,7 @@
       <c r="E79" s="1">
         <v>229</v>
       </c>
-      <c r="M79" t="s">
-        <v>6</v>
-      </c>
-      <c r="N79" t="s">
-        <v>7</v>
-      </c>
-      <c r="O79" t="s">
-        <v>17</v>
-      </c>
-      <c r="P79" s="1">
-        <v>230.1</v>
-      </c>
+      <c r="P79" s="1"/>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
@@ -2019,18 +1840,7 @@
       <c r="E80" s="1">
         <v>227.4</v>
       </c>
-      <c r="M80" t="s">
-        <v>6</v>
-      </c>
-      <c r="N80" t="s">
-        <v>9</v>
-      </c>
-      <c r="O80" t="s">
-        <v>17</v>
-      </c>
-      <c r="P80" s="1">
-        <v>232</v>
-      </c>
+      <c r="P80" s="1"/>
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
@@ -2045,18 +1855,7 @@
       <c r="E81" s="1">
         <v>230.3</v>
       </c>
-      <c r="M81" t="s">
-        <v>6</v>
-      </c>
-      <c r="N81" t="s">
-        <v>9</v>
-      </c>
-      <c r="O81" t="s">
-        <v>17</v>
-      </c>
-      <c r="P81" s="1">
-        <v>229.8</v>
-      </c>
+      <c r="P81" s="1"/>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
@@ -2071,18 +1870,7 @@
       <c r="E82" s="1">
         <v>230.3</v>
       </c>
-      <c r="M82" t="s">
-        <v>6</v>
-      </c>
-      <c r="N82" t="s">
-        <v>19</v>
-      </c>
-      <c r="O82" t="s">
-        <v>17</v>
-      </c>
-      <c r="P82" s="1">
-        <v>229.4</v>
-      </c>
+      <c r="P82" s="1"/>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
@@ -2097,18 +1885,7 @@
       <c r="E83" s="1">
         <v>2225.6999999999998</v>
       </c>
-      <c r="M83" t="s">
-        <v>6</v>
-      </c>
-      <c r="N83" t="s">
-        <v>19</v>
-      </c>
-      <c r="O83" t="s">
-        <v>17</v>
-      </c>
-      <c r="P83" s="1">
-        <v>228.7</v>
-      </c>
+      <c r="P83" s="1"/>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
@@ -2123,18 +1900,7 @@
       <c r="E84" s="1">
         <v>230.6</v>
       </c>
-      <c r="M84" t="s">
-        <v>6</v>
-      </c>
-      <c r="N84" t="s">
-        <v>10</v>
-      </c>
-      <c r="O84" t="s">
-        <v>17</v>
-      </c>
-      <c r="P84" s="1">
-        <v>230.1</v>
-      </c>
+      <c r="P84" s="1"/>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
@@ -2149,18 +1915,7 @@
       <c r="E85" s="1">
         <v>230.3</v>
       </c>
-      <c r="M85" t="s">
-        <v>6</v>
-      </c>
-      <c r="N85" t="s">
-        <v>10</v>
-      </c>
-      <c r="O85" t="s">
-        <v>17</v>
-      </c>
-      <c r="P85" s="1">
-        <v>232.8</v>
-      </c>
+      <c r="P85" s="1"/>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
@@ -2675,11 +2430,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F3BE37-D185-4819-BA21-ACD3A965E769}">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2717,15 +2477,15 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
-        <v>229.1</v>
+      <c r="E2" s="1">
+        <v>227.3</v>
       </c>
       <c r="F2" s="1">
-        <v>230.2</v>
-      </c>
-      <c r="G2">
-        <f>(E2-F2)/(E2)*100</f>
-        <v>-0.4801396769969421</v>
+        <v>226.5</v>
+      </c>
+      <c r="G2" s="4">
+        <f>(E2-F2)/(5)*(100)</f>
+        <v>16.000000000000227</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2741,23 +2501,23 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3">
-        <v>229.1</v>
+      <c r="E3" s="1">
+        <v>227.3</v>
       </c>
       <c r="F3" s="1">
-        <v>226.5</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G66" si="0">(E3-F3)/(E3)*100</f>
-        <v>1.1348756001745939</v>
+        <v>226.2</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G65" si="0">(E3-F3)/(5)*(100)</f>
+        <v>22.000000000000455</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -2765,20 +2525,20 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4">
-        <v>229.1</v>
+      <c r="E4" s="1">
+        <v>227.85</v>
       </c>
       <c r="F4" s="1">
-        <v>226.2</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>1.2658227848101291</v>
+        <v>225.2</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="0"/>
+        <v>53.000000000000114</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -2789,20 +2549,20 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="E5">
-        <v>229.9</v>
+      <c r="E5" s="1">
+        <v>227.85</v>
       </c>
       <c r="F5" s="1">
-        <v>225.2</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>2.0443671161374586</v>
+        <v>227.9</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000002274</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -2813,23 +2573,23 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6">
-        <v>229.9</v>
+      <c r="E6" s="1">
+        <v>227.85</v>
       </c>
       <c r="F6" s="1">
-        <v>227.9</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>0.86994345367551118</v>
+        <v>226.5</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>26.999999999999886</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -2837,20 +2597,20 @@
       <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="E7">
-        <v>229.9</v>
+      <c r="E7" s="1">
+        <v>229.3</v>
       </c>
       <c r="F7" s="1">
-        <v>226.5</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>1.4789038712483713</v>
+        <v>229.2</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0000000000004547</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -2861,20 +2621,20 @@
       <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>229.3</v>
       </c>
       <c r="F8" s="1">
-        <v>229.2</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>4.3610989969482226E-2</v>
+        <v>227.2</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>42.000000000000455</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -2885,23 +2645,23 @@
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>229.3</v>
       </c>
       <c r="F9" s="1">
-        <v>227.2</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>0.91583078935892837</v>
+        <v>228</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>26.000000000000227</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -2909,20 +2669,20 @@
       <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="E10">
-        <v>229.3</v>
+      <c r="E10" s="1">
+        <v>228.3</v>
       </c>
       <c r="F10" s="1">
-        <v>228</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>0.56694286960314488</v>
+        <v>226.6</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>34.000000000000341</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -2933,68 +2693,68 @@
       <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>228.3</v>
       </c>
       <c r="F11" s="1">
-        <v>226.6</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>0.74463425317565357</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
+        <v>224.3</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2">
         <v>228.3</v>
       </c>
-      <c r="F12" s="1">
-        <v>224.3</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>1.7520805957074024</v>
+      <c r="F12" s="2">
+        <v>226.8</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>228.3</v>
+        <v>16</v>
+      </c>
+      <c r="E13" s="1">
+        <v>228</v>
       </c>
       <c r="F13" s="1">
-        <v>226.8</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>0.65703022339027595</v>
+        <v>227.5</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -3005,23 +2765,23 @@
       <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>228</v>
       </c>
       <c r="F14" s="1">
-        <v>227.5</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>0.21929824561403508</v>
+        <v>227.8</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="0"/>
+        <v>3.9999999999997726</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -3029,23 +2789,23 @@
       <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="E15">
-        <v>228</v>
+      <c r="E15" s="1">
+        <v>229.9</v>
       </c>
       <c r="F15" s="1">
-        <v>230.4</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>-1.052631578947371</v>
+        <v>230.7</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="0"/>
+        <v>-15.999999999999659</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -3053,20 +2813,20 @@
       <c r="D16" t="s">
         <v>16</v>
       </c>
-      <c r="E16">
-        <v>228</v>
+      <c r="E16" s="1">
+        <v>229.9</v>
       </c>
       <c r="F16" s="1">
-        <v>227.8</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
-        <v>8.7719298245609048E-2</v>
+        <v>226.4</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -3077,23 +2837,23 @@
       <c r="D17" t="s">
         <v>16</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>229.9</v>
       </c>
       <c r="F17" s="1">
-        <v>230.7</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
-        <v>-0.34797738147019702</v>
+        <v>228</v>
+      </c>
+      <c r="G17" s="4">
+        <f t="shared" si="0"/>
+        <v>38.000000000000114</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
@@ -3101,23 +2861,23 @@
       <c r="D18" t="s">
         <v>16</v>
       </c>
-      <c r="E18">
-        <v>229.9</v>
+      <c r="E18" s="1">
+        <v>228.4</v>
       </c>
       <c r="F18" s="1">
-        <v>226.4</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="0"/>
-        <v>1.5224010439321443</v>
+        <v>227.1</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="0"/>
+        <v>26.000000000000227</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
@@ -3125,20 +2885,20 @@
       <c r="D19" t="s">
         <v>16</v>
       </c>
-      <c r="E19">
-        <v>229.9</v>
+      <c r="E19" s="1">
+        <v>228.4</v>
       </c>
       <c r="F19" s="1">
-        <v>228</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>0.826446280991738</v>
+        <v>228.4</v>
+      </c>
+      <c r="G19" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -3149,23 +2909,23 @@
       <c r="D20" t="s">
         <v>16</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>228.4</v>
       </c>
       <c r="F20" s="1">
-        <v>227.1</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="0"/>
-        <v>0.56917688266200139</v>
+        <v>225</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="0"/>
+        <v>68.000000000000114</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
@@ -3173,111 +2933,111 @@
       <c r="D21" t="s">
         <v>16</v>
       </c>
-      <c r="E21">
-        <v>228.4</v>
+      <c r="E21" s="1">
+        <v>228.5</v>
       </c>
       <c r="F21" s="1">
-        <v>228.4</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>227.1</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="0"/>
+        <v>28.000000000000114</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="1">
+        <v>228.5</v>
+      </c>
+      <c r="F22" s="1">
+        <v>228.9</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="0"/>
+        <v>-8.0000000000001137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
         <v>3</v>
       </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22">
-        <v>228.4</v>
-      </c>
-      <c r="F22" s="1">
-        <v>225</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="0"/>
-        <v>1.4886164623467626</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23">
+      <c r="C23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="2">
         <v>228.5</v>
       </c>
-      <c r="F23" s="1">
-        <v>227.1</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="0"/>
-        <v>0.6126914660831535</v>
+      <c r="F23" s="2">
+        <v>227.4</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="0"/>
+        <v>21.999999999999886</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24">
-        <v>228.5</v>
+        <v>17</v>
+      </c>
+      <c r="E24" s="1">
+        <v>227.2</v>
       </c>
       <c r="F24" s="1">
-        <v>228.9</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="0"/>
-        <v>-0.17505470459518849</v>
+        <v>225.2</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25">
-        <v>228.5</v>
+        <v>17</v>
+      </c>
+      <c r="E25" s="1">
+        <v>227.2</v>
       </c>
       <c r="F25" s="1">
-        <v>227.4</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="0"/>
-        <v>0.48140043763675899</v>
+        <v>226.2</v>
+      </c>
+      <c r="G25" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3285,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
@@ -3293,15 +3053,15 @@
       <c r="D26" t="s">
         <v>17</v>
       </c>
-      <c r="E26">
-        <v>227.2</v>
+      <c r="E26" s="1">
+        <v>227</v>
       </c>
       <c r="F26" s="1">
-        <v>231.2</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="0"/>
-        <v>-1.7605633802816902</v>
+        <v>226.2</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="0"/>
+        <v>16.000000000000227</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3309,7 +3069,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -3317,23 +3077,23 @@
       <c r="D27" t="s">
         <v>17</v>
       </c>
-      <c r="E27">
-        <v>227.2</v>
+      <c r="E27" s="1">
+        <v>227</v>
       </c>
       <c r="F27" s="1">
-        <v>225.2</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="0"/>
-        <v>0.88028169014084512</v>
+        <v>226.9</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9999999999998863</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
@@ -3341,23 +3101,23 @@
       <c r="D28" t="s">
         <v>17</v>
       </c>
-      <c r="E28">
-        <v>227.2</v>
+      <c r="E28" s="1">
+        <v>228.7</v>
       </c>
       <c r="F28" s="1">
-        <v>226.2</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="0"/>
-        <v>0.44014084507042256</v>
+        <v>227.4</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="0"/>
+        <v>25.999999999999655</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
@@ -3365,23 +3125,23 @@
       <c r="D29" t="s">
         <v>17</v>
       </c>
-      <c r="E29">
-        <v>227</v>
+      <c r="E29" s="1">
+        <v>228.7</v>
       </c>
       <c r="F29" s="1">
-        <v>230.2</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="0"/>
-        <v>-1.4096916299559421</v>
+        <v>226.7</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
@@ -3389,23 +3149,23 @@
       <c r="D30" t="s">
         <v>17</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
+        <v>228.7</v>
+      </c>
+      <c r="F30" s="1">
         <v>227</v>
       </c>
-      <c r="F30" s="1">
-        <v>226.2</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="0"/>
-        <v>0.3524229074889918</v>
+      <c r="G30" s="4">
+        <f t="shared" si="0"/>
+        <v>33.999999999999773</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
@@ -3413,23 +3173,23 @@
       <c r="D31" t="s">
         <v>17</v>
       </c>
-      <c r="E31">
-        <v>227</v>
+      <c r="E31" s="1">
+        <v>229.3</v>
       </c>
       <c r="F31" s="1">
-        <v>226.9</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="0"/>
-        <v>4.4052863436120845E-2</v>
+        <v>227.6</v>
+      </c>
+      <c r="G31" s="4">
+        <f t="shared" si="0"/>
+        <v>34.000000000000341</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
@@ -3437,892 +3197,832 @@
       <c r="D32" t="s">
         <v>17</v>
       </c>
-      <c r="E32">
-        <v>228.7</v>
+      <c r="E32" s="1">
+        <v>229.3</v>
       </c>
       <c r="F32" s="1">
-        <v>227.4</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="0"/>
-        <v>0.56843025797987889</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>2</v>
-      </c>
-      <c r="B33" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33">
-        <v>228.7</v>
-      </c>
-      <c r="F33" s="1">
-        <v>226.7</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="0"/>
-        <v>0.87450808919982514</v>
+        <v>228.8</v>
+      </c>
+      <c r="G32" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>3</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="2">
+        <v>229.3</v>
+      </c>
+      <c r="F33" s="2">
+        <v>230.6</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="0"/>
+        <v>-25.999999999999655</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34">
-        <v>228.7</v>
+        <v>8</v>
+      </c>
+      <c r="E34" s="1">
+        <v>230.3</v>
       </c>
       <c r="F34" s="1">
-        <v>227</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="0"/>
-        <v>0.74333187581984639</v>
+        <v>229.7</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="0"/>
+        <v>12.000000000000455</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35">
-        <v>229.3</v>
+        <v>8</v>
+      </c>
+      <c r="E35" s="1">
+        <v>230.3</v>
       </c>
       <c r="F35" s="1">
-        <v>227.6</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="0"/>
-        <v>0.74138682948103662</v>
+        <v>227.3</v>
+      </c>
+      <c r="G35" s="4">
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36">
-        <v>229.3</v>
+        <v>8</v>
+      </c>
+      <c r="E36" s="1">
+        <v>229</v>
       </c>
       <c r="F36" s="1">
-        <v>228.8</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="0"/>
-        <v>0.21805494984736151</v>
+        <v>227.5</v>
+      </c>
+      <c r="G36" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="1">
+        <v>229</v>
+      </c>
+      <c r="F37" s="1">
+        <v>225.5</v>
+      </c>
+      <c r="G37" s="4">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>3</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="1">
+        <v>229</v>
+      </c>
+      <c r="F38" s="1">
+        <v>226.5</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1">
+        <v>229.5</v>
+      </c>
+      <c r="F39" s="1">
+        <v>228.4</v>
+      </c>
+      <c r="G39" s="4">
+        <f t="shared" si="0"/>
+        <v>21.999999999999886</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="1">
+        <v>229.5</v>
+      </c>
+      <c r="F40" s="1">
+        <v>228.6</v>
+      </c>
+      <c r="G40" s="4">
+        <f t="shared" si="0"/>
+        <v>18.000000000000114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
         <v>15</v>
       </c>
-      <c r="C37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37">
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="1">
         <v>229.3</v>
       </c>
-      <c r="F37" s="1">
-        <v>230.6</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="0"/>
-        <v>-0.56694286960313256</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="F41" s="1">
+        <v>229</v>
+      </c>
+      <c r="G41" s="4">
+        <f t="shared" si="0"/>
+        <v>6.0000000000002274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="1">
+        <v>229.3</v>
+      </c>
+      <c r="F42" s="1">
+        <v>227.4</v>
+      </c>
+      <c r="G42" s="4">
+        <f t="shared" si="0"/>
+        <v>38.000000000000114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>3</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="2">
+        <v>229.3</v>
+      </c>
+      <c r="F43" s="2">
+        <v>230.3</v>
+      </c>
+      <c r="G43" s="4">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
         <v>11</v>
       </c>
-      <c r="C38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38">
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="1">
+        <v>228</v>
+      </c>
+      <c r="F44" s="1">
+        <v>224.3</v>
+      </c>
+      <c r="G44" s="4">
+        <f t="shared" si="0"/>
+        <v>73.999999999999773</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="1">
+        <v>228</v>
+      </c>
+      <c r="F45" s="1">
+        <v>230.7</v>
+      </c>
+      <c r="G45" s="4">
+        <f t="shared" si="0"/>
+        <v>-53.999999999999773</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="1">
+        <v>228</v>
+      </c>
+      <c r="F46" s="1">
+        <v>227.6</v>
+      </c>
+      <c r="G46" s="4">
+        <f t="shared" si="0"/>
+        <v>8.0000000000001137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="1">
+        <v>231.4</v>
+      </c>
+      <c r="F47" s="1">
+        <v>224.8</v>
+      </c>
+      <c r="G47" s="4">
+        <f t="shared" si="0"/>
+        <v>131.99999999999989</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="1">
+        <v>231.4</v>
+      </c>
+      <c r="F48" s="1">
+        <v>225</v>
+      </c>
+      <c r="G48" s="4">
+        <f t="shared" si="0"/>
+        <v>128.00000000000011</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="1">
+        <v>227.6</v>
+      </c>
+      <c r="F49" s="1">
+        <v>231.8</v>
+      </c>
+      <c r="G49" s="4">
+        <f t="shared" si="0"/>
+        <v>-84.000000000000341</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="1">
+        <v>227.6</v>
+      </c>
+      <c r="F50" s="1">
+        <v>227.3</v>
+      </c>
+      <c r="G50" s="4">
+        <f t="shared" si="0"/>
+        <v>5.9999999999996589</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="1">
+        <v>227.6</v>
+      </c>
+      <c r="F51" s="1">
+        <v>231.2</v>
+      </c>
+      <c r="G51" s="4">
+        <f t="shared" si="0"/>
+        <v>-71.999999999999886</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="1">
+        <v>230.5</v>
+      </c>
+      <c r="F52" s="1">
+        <v>229.2</v>
+      </c>
+      <c r="G52" s="4">
+        <f t="shared" si="0"/>
+        <v>26.000000000000227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="1">
+        <v>230.5</v>
+      </c>
+      <c r="F53" s="1">
+        <v>228.9</v>
+      </c>
+      <c r="G53" s="4">
+        <f t="shared" si="0"/>
+        <v>31.999999999999883</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="1">
+        <v>230.1</v>
+      </c>
+      <c r="F54" s="1">
         <v>230.3</v>
       </c>
-      <c r="F38" s="1">
-        <v>229.7</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="0"/>
-        <v>0.26052974381242844</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="G54" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.0000000000003411</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
         <v>11</v>
       </c>
-      <c r="C39" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39">
-        <v>230.3</v>
-      </c>
-      <c r="F39" s="1">
-        <v>231.7</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="0"/>
-        <v>-0.60790273556230012</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="1">
+        <v>230.1</v>
+      </c>
+      <c r="F55" s="1">
+        <v>228.8</v>
+      </c>
+      <c r="G55" s="4">
+        <f t="shared" si="0"/>
+        <v>25.999999999999655</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
         <v>11</v>
       </c>
-      <c r="C40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40">
-        <v>230.3</v>
-      </c>
-      <c r="F40" s="1">
-        <v>227.3</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="0"/>
-        <v>1.3026487190620928</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="1">
+        <v>230.1</v>
+      </c>
+      <c r="F56" s="1">
+        <v>225.4</v>
+      </c>
+      <c r="G56" s="4">
+        <f t="shared" si="0"/>
+        <v>93.999999999999773</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
         <v>13</v>
       </c>
-      <c r="C41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41">
-        <v>229</v>
-      </c>
-      <c r="F41" s="1">
-        <v>227.5</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="0"/>
-        <v>0.65502183406113534</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+      <c r="C57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="1">
+        <v>232</v>
+      </c>
+      <c r="F57" s="1">
+        <v>227.4</v>
+      </c>
+      <c r="G57" s="4">
+        <f t="shared" si="0"/>
+        <v>91.999999999999886</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
         <v>13</v>
       </c>
-      <c r="C42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42">
-        <v>229</v>
-      </c>
-      <c r="F42" s="1">
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="1">
+        <v>232</v>
+      </c>
+      <c r="F58" s="1">
+        <v>228.5</v>
+      </c>
+      <c r="G58" s="4">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="1">
+        <v>232</v>
+      </c>
+      <c r="F59" s="1">
+        <v>227</v>
+      </c>
+      <c r="G59" s="4">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="1">
+        <v>229.1</v>
+      </c>
+      <c r="F60" s="1">
         <v>225.5</v>
       </c>
-      <c r="G42">
-        <f t="shared" si="0"/>
-        <v>1.5283842794759825</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43">
-        <v>229</v>
-      </c>
-      <c r="F43" s="1">
+      <c r="G60" s="4">
+        <f t="shared" si="0"/>
+        <v>71.999999999999886</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="1">
+        <v>229.1</v>
+      </c>
+      <c r="F61" s="1">
         <v>226.5</v>
       </c>
-      <c r="G43">
-        <f t="shared" si="0"/>
-        <v>1.0917030567685588</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+      <c r="G61" s="4">
+        <f t="shared" si="0"/>
+        <v>51.999999999999893</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s">
         <v>14</v>
       </c>
-      <c r="C44" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44">
-        <v>229.5</v>
-      </c>
-      <c r="F44" s="1">
-        <v>228.4</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="0"/>
-        <v>0.47930283224400622</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45">
-        <v>229.5</v>
-      </c>
-      <c r="F45" s="1">
-        <v>228.6</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="0"/>
-        <v>0.39215686274510053</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>14</v>
-      </c>
-      <c r="C46" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46">
-        <v>229.5</v>
-      </c>
-      <c r="F46" s="1">
-        <v>231.4</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="0"/>
-        <v>-0.82788671023965399</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+      <c r="C62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="1">
+        <v>229.1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>228.9</v>
+      </c>
+      <c r="G62" s="4">
+        <f t="shared" si="0"/>
+        <v>3.9999999999997726</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
         <v>15</v>
       </c>
-      <c r="C47" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47">
-        <v>229.3</v>
-      </c>
-      <c r="F47" s="1">
-        <v>229</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="0"/>
-        <v>0.13083296990842186</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="1">
+        <v>231</v>
+      </c>
+      <c r="F63" s="1">
+        <v>228.9</v>
+      </c>
+      <c r="G63" s="4">
+        <f t="shared" si="0"/>
+        <v>41.999999999999886</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
         <v>15</v>
       </c>
-      <c r="C48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48">
-        <v>229.3</v>
-      </c>
-      <c r="F48" s="1">
-        <v>227.4</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="0"/>
-        <v>0.82860880941997628</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="1">
+        <v>231</v>
+      </c>
+      <c r="F64" s="1">
+        <v>227.7</v>
+      </c>
+      <c r="G64" s="4">
+        <f t="shared" si="0"/>
+        <v>66.000000000000227</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>3</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C49" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49">
-        <v>229.3</v>
-      </c>
-      <c r="F49" s="1">
-        <v>230.3</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="0"/>
-        <v>-0.43610989969472302</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50">
-        <v>228</v>
-      </c>
-      <c r="F50" s="1">
-        <v>224.3</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="0"/>
-        <v>1.6228070175438547</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51">
-        <v>228</v>
-      </c>
-      <c r="F51" s="1">
-        <v>230.7</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="0"/>
-        <v>-1.1842105263157845</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52">
-        <v>228</v>
-      </c>
-      <c r="F52" s="1">
-        <v>227.6</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="0"/>
-        <v>0.17543859649123056</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" t="s">
-        <v>16</v>
-      </c>
-      <c r="E53">
-        <v>231.4</v>
-      </c>
-      <c r="F53" s="1">
-        <v>224.8</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="0"/>
-        <v>2.8522039757994788</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54">
-        <v>231.4</v>
-      </c>
-      <c r="F54" s="1">
-        <v>225</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="0"/>
-        <v>2.7657735522904088</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" t="s">
-        <v>16</v>
-      </c>
-      <c r="E55">
-        <v>231.4</v>
-      </c>
-      <c r="F55" s="1">
-        <v>232.4</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="0"/>
-        <v>-0.43215211754537591</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56">
-        <v>231.8</v>
-      </c>
-      <c r="F56" s="1">
-        <v>231.8</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57">
-        <v>231.8</v>
-      </c>
-      <c r="F57" s="1">
-        <v>227.3</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="0"/>
-        <v>1.9413287316652286</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58">
-        <v>231.8</v>
-      </c>
-      <c r="F58" s="1">
-        <v>231.2</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="0"/>
-        <v>0.25884383088870694</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59">
-        <v>230.5</v>
-      </c>
-      <c r="F59" s="1">
-        <v>229.2</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="0"/>
-        <v>0.56399132321041712</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60">
-        <v>230.5</v>
-      </c>
-      <c r="F60" s="1">
-        <v>228.9</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="0"/>
-        <v>0.69414316702819712</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61">
-        <v>230.5</v>
-      </c>
-      <c r="F61" s="1">
-        <v>231.9</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="0"/>
-        <v>-0.60737527114967715</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" t="s">
-        <v>17</v>
-      </c>
-      <c r="E62">
-        <v>232</v>
-      </c>
-      <c r="F62" s="1">
-        <v>230.3</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="0"/>
-        <v>0.73275862068965025</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" t="s">
-        <v>17</v>
-      </c>
-      <c r="E63">
-        <v>232</v>
-      </c>
-      <c r="F63" s="1">
-        <v>228.8</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="0"/>
-        <v>1.3793103448275814</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" t="s">
-        <v>17</v>
-      </c>
-      <c r="E64">
-        <v>232</v>
-      </c>
-      <c r="F64" s="1">
-        <v>225.4</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="0"/>
-        <v>2.8448275862068941</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>13</v>
-      </c>
-      <c r="C65" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" t="s">
-        <v>17</v>
-      </c>
-      <c r="E65">
-        <v>232</v>
-      </c>
-      <c r="F65" s="1">
-        <v>227.4</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="0"/>
-        <v>1.9827586206896528</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>13</v>
-      </c>
-      <c r="C66" t="s">
-        <v>18</v>
-      </c>
-      <c r="D66" t="s">
-        <v>17</v>
-      </c>
-      <c r="E66">
-        <v>232</v>
-      </c>
-      <c r="F66" s="1">
-        <v>228.5</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="0"/>
-        <v>1.5086206896551724</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>13</v>
-      </c>
-      <c r="C67" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67">
-        <v>232</v>
-      </c>
-      <c r="F67" s="1">
-        <v>227</v>
-      </c>
-      <c r="G67">
-        <f t="shared" ref="G67:G73" si="1">(E67-F67)/(E67)*100</f>
-        <v>2.1551724137931036</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68">
-        <v>229.1</v>
-      </c>
-      <c r="F68" s="1">
-        <v>225.5</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="1"/>
-        <v>1.5713662156263617</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69" t="s">
-        <v>17</v>
-      </c>
-      <c r="E69">
-        <v>229.1</v>
-      </c>
-      <c r="F69" s="1">
-        <v>226.5</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="1"/>
-        <v>1.1348756001745939</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70" t="s">
-        <v>17</v>
-      </c>
-      <c r="E70">
-        <v>229.1</v>
-      </c>
-      <c r="F70" s="1">
-        <v>228.9</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="1"/>
-        <v>8.7298123090348595E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" t="s">
-        <v>17</v>
-      </c>
-      <c r="E71">
+      <c r="C65" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="2">
         <v>231</v>
       </c>
-      <c r="F71" s="1">
-        <v>228.9</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="1"/>
-        <v>0.90909090909090662</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" t="s">
-        <v>17</v>
-      </c>
-      <c r="E72">
-        <v>231</v>
-      </c>
-      <c r="F72" s="1">
-        <v>227.7</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="1"/>
-        <v>1.4285714285714335</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73" t="s">
-        <v>17</v>
-      </c>
-      <c r="E73">
-        <v>231</v>
-      </c>
-      <c r="F73" s="1">
+      <c r="F65" s="2">
         <v>228.2</v>
       </c>
-      <c r="G73">
-        <f t="shared" si="1"/>
-        <v>1.212121212121217</v>
-      </c>
+      <c r="G65" s="4">
+        <f t="shared" si="0"/>
+        <v>56.000000000000227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G73" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4331,15 +4031,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6164590A-D0FF-4286-85BB-B4F5F8A9B032}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:R65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4353,10 +4053,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4369,11 +4069,13 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
-        <v>-0.48014000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="1">
+        <v>16</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4386,16 +4088,18 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3">
-        <v>1.134876</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <v>22</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -4403,13 +4107,15 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4">
-        <v>1.2658229999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
+        <v>53</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -4420,13 +4126,15 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="E5">
-        <v>2.0443669999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="4">
+        <v>-1</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -4437,16 +4145,18 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6">
-        <v>0.86994300000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <v>27</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -4454,13 +4164,15 @@
       <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="E7">
-        <v>1.478904</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -4471,13 +4183,15 @@
       <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="E8">
-        <v>4.3610999999999997E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <v>42</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -4488,16 +4202,18 @@
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9">
-        <v>0.91583099999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <v>26</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -4505,13 +4221,15 @@
       <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="E10">
-        <v>0.56694299999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <v>34</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -4522,13 +4240,15 @@
       <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="E11">
-        <v>0.74463400000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <v>80</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
@@ -4539,30 +4259,34 @@
       <c r="D12" t="s">
         <v>8</v>
       </c>
-      <c r="E12">
-        <v>1.752081</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <v>30</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>0.65703</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1">
+        <v>10</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -4573,16 +4297,18 @@
       <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="E14">
-        <v>0.21929799999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
@@ -4590,16 +4316,18 @@
       <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="E15">
-        <v>-1.05263</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="4">
+        <v>-16</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
@@ -4607,13 +4335,13 @@
       <c r="D16" t="s">
         <v>16</v>
       </c>
-      <c r="E16">
-        <v>8.7719000000000005E-2</v>
+      <c r="E16" s="1">
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -4624,16 +4352,16 @@
       <c r="D17" t="s">
         <v>16</v>
       </c>
-      <c r="E17">
-        <v>-0.34788999999999998</v>
+      <c r="E17" s="1">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
@@ -4641,16 +4369,16 @@
       <c r="D18" t="s">
         <v>16</v>
       </c>
-      <c r="E18">
-        <v>1.5224009999999999</v>
+      <c r="E18" s="1">
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
@@ -4658,13 +4386,13 @@
       <c r="D19" t="s">
         <v>16</v>
       </c>
-      <c r="E19">
-        <v>0.82644600000000001</v>
+      <c r="E19" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -4675,16 +4403,16 @@
       <c r="D20" t="s">
         <v>16</v>
       </c>
-      <c r="E20">
-        <v>0.56917700000000004</v>
+      <c r="E20" s="1">
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
         <v>12</v>
@@ -4692,16 +4420,16 @@
       <c r="D21" t="s">
         <v>16</v>
       </c>
-      <c r="E21">
-        <v>0</v>
+      <c r="E21" s="1">
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
         <v>12</v>
@@ -4709,13 +4437,13 @@
       <c r="D22" t="s">
         <v>16</v>
       </c>
-      <c r="E22">
-        <v>1.4886159999999999</v>
+      <c r="E22" s="1">
+        <v>-8</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -4726,42 +4454,42 @@
       <c r="D23" t="s">
         <v>16</v>
       </c>
-      <c r="E23">
-        <v>0.61269099999999999</v>
+      <c r="E23" s="1">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24">
-        <v>-0.17505000000000001</v>
+        <v>17</v>
+      </c>
+      <c r="E24" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25">
-        <v>0.48139999999999999</v>
+        <v>17</v>
+      </c>
+      <c r="E25" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -4769,7 +4497,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
         <v>12</v>
@@ -4777,8 +4505,8 @@
       <c r="D26" t="s">
         <v>17</v>
       </c>
-      <c r="E26">
-        <v>-1.7605599999999999</v>
+      <c r="E26" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -4786,7 +4514,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -4794,16 +4522,16 @@
       <c r="D27" t="s">
         <v>17</v>
       </c>
-      <c r="E27">
-        <v>0.88028200000000001</v>
+      <c r="E27" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
         <v>12</v>
@@ -4811,16 +4539,16 @@
       <c r="D28" t="s">
         <v>17</v>
       </c>
-      <c r="E28">
-        <v>0.440141</v>
+      <c r="E28" s="1">
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
         <v>12</v>
@@ -4828,16 +4556,16 @@
       <c r="D29" t="s">
         <v>17</v>
       </c>
-      <c r="E29">
-        <v>-1.4096900000000001</v>
+      <c r="E29" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
@@ -4845,16 +4573,16 @@
       <c r="D30" t="s">
         <v>17</v>
       </c>
-      <c r="E30">
-        <v>0.35242299999999999</v>
+      <c r="E30" s="1">
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C31" t="s">
         <v>12</v>
@@ -4862,16 +4590,16 @@
       <c r="D31" t="s">
         <v>17</v>
       </c>
-      <c r="E31">
-        <v>4.4053000000000002E-2</v>
+      <c r="E31" s="1">
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C32" t="s">
         <v>12</v>
@@ -4879,16 +4607,16 @@
       <c r="D32" t="s">
         <v>17</v>
       </c>
-      <c r="E32">
-        <v>0.56842999999999999</v>
+      <c r="E32" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C33" t="s">
         <v>12</v>
@@ -4896,580 +4624,552 @@
       <c r="D33" t="s">
         <v>17</v>
       </c>
-      <c r="E33">
-        <v>0.87450799999999995</v>
+      <c r="E33" s="4">
+        <v>-26</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34">
-        <v>0.74333199999999999</v>
+        <v>8</v>
+      </c>
+      <c r="E34" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35">
-        <v>0.74138700000000002</v>
+        <v>8</v>
+      </c>
+      <c r="E35" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36">
-        <v>0.218055</v>
+        <v>8</v>
+      </c>
+      <c r="E36" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>3</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" t="s">
         <v>15</v>
       </c>
-      <c r="C37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37">
-        <v>-0.56694</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>2</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="4">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
         <v>11</v>
       </c>
-      <c r="C38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38">
-        <v>0.26052999999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>2</v>
+      </c>
+      <c r="B45" t="s">
         <v>11</v>
       </c>
-      <c r="C39" t="s">
-        <v>18</v>
-      </c>
-      <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39">
-        <v>-0.6079</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="4">
+        <v>-54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
         <v>11</v>
       </c>
-      <c r="C40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40">
-        <v>1.3026489999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>1</v>
+      </c>
+      <c r="B47" t="s">
         <v>13</v>
       </c>
-      <c r="C41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41">
-        <v>0.65502199999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>2</v>
+      </c>
+      <c r="B48" t="s">
         <v>13</v>
       </c>
-      <c r="C42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42">
-        <v>1.528384</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="1">
+        <v>-84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>2</v>
+      </c>
+      <c r="B50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="4">
+        <v>-72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>2</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>1</v>
+      </c>
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="4">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>3</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
         <v>13</v>
       </c>
-      <c r="C43" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43">
-        <v>1.0917030000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+      <c r="C57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
         <v>14</v>
       </c>
-      <c r="C44" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44">
-        <v>0.47930299999999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+      <c r="C60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>2</v>
+      </c>
+      <c r="B61" t="s">
         <v>14</v>
       </c>
-      <c r="C45" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45">
-        <v>0.39215699999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>3</v>
+      </c>
+      <c r="B62" t="s">
         <v>14</v>
       </c>
-      <c r="C46" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46">
-        <v>-0.82789000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+      <c r="C62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
         <v>15</v>
       </c>
-      <c r="C47" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47">
-        <v>0.130833</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>2</v>
+      </c>
+      <c r="B64" t="s">
         <v>15</v>
       </c>
-      <c r="C48" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48">
-        <v>0.82860900000000004</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+      <c r="C64" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
         <v>15</v>
       </c>
-      <c r="C49" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49">
-        <v>-0.43611</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50">
-        <v>1.6228070000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51">
-        <v>-1.18421</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52">
-        <v>0.17543900000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" t="s">
-        <v>16</v>
-      </c>
-      <c r="E53">
-        <v>2.852204</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54">
-        <v>2.765774</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" t="s">
-        <v>16</v>
-      </c>
-      <c r="E55">
-        <v>-0.43214999999999998</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57">
-        <v>1.9413290000000001</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58">
-        <v>0.25884400000000002</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59">
-        <v>0.56399100000000002</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>15</v>
-      </c>
-      <c r="C60" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60">
-        <v>0.69414299999999995</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61">
-        <v>-0.60738000000000003</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>11</v>
-      </c>
-      <c r="C62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" t="s">
-        <v>17</v>
-      </c>
-      <c r="E62">
-        <v>0.73475900000000005</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" t="s">
-        <v>17</v>
-      </c>
-      <c r="E63">
-        <v>1.37931</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" t="s">
-        <v>17</v>
-      </c>
-      <c r="E64">
-        <v>2.8448280000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>13</v>
-      </c>
       <c r="C65" t="s">
         <v>18</v>
       </c>
       <c r="D65" t="s">
         <v>17</v>
       </c>
-      <c r="E65">
-        <v>1.9827589999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>13</v>
-      </c>
-      <c r="C66" t="s">
-        <v>18</v>
-      </c>
-      <c r="D66" t="s">
-        <v>17</v>
-      </c>
-      <c r="E66">
-        <v>1.508621</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>13</v>
-      </c>
-      <c r="C67" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" t="s">
-        <v>17</v>
-      </c>
-      <c r="E67">
-        <v>2.1551719999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" t="s">
-        <v>17</v>
-      </c>
-      <c r="E68">
-        <v>1.571366</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69" t="s">
-        <v>17</v>
-      </c>
-      <c r="E69">
-        <v>1.134876</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70" t="s">
-        <v>17</v>
-      </c>
-      <c r="E70">
-        <v>8.7298000000000001E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>15</v>
-      </c>
-      <c r="C71" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" t="s">
-        <v>17</v>
-      </c>
-      <c r="E71">
-        <v>0.90909099999999998</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" t="s">
-        <v>17</v>
-      </c>
-      <c r="E72">
-        <v>1.428571</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73" t="s">
-        <v>17</v>
-      </c>
-      <c r="E73">
-        <v>1.212121</v>
+      <c r="E65" s="1">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/MP_data.xlsx
+++ b/MP_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b3bbfbef5e37dc7/Documents/DWS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{D03FEFB5-0099-4058-970C-267A3EE24150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="14_{4666676F-D6CD-417A-AB79-E9816A539307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E50255EB-0193-4556-A4E2-E6DAE586218A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3CBBD501-3265-4BF2-B6DA-4D131CBF8CE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3CBBD501-3265-4BF2-B6DA-4D131CBF8CE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="23">
   <si>
     <t>Replicates</t>
   </si>
@@ -2430,8 +2430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F3BE37-D185-4819-BA21-ACD3A965E769}">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:P61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2508,7 +2508,7 @@
         <v>226.2</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:G65" si="0">(E3-F3)/(5)*(100)</f>
+        <f>(E3-F3)/(5)*(100)</f>
         <v>22.000000000000455</v>
       </c>
     </row>
@@ -2532,7 +2532,7 @@
         <v>225.2</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" si="0"/>
+        <f>(E4-F4)/(5)*(100)</f>
         <v>53.000000000000114</v>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
         <v>227.9</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="0"/>
+        <f>(E5-F5)/(5)*(100)</f>
         <v>-1.0000000000002274</v>
       </c>
     </row>
@@ -2580,7 +2580,7 @@
         <v>226.5</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="0"/>
+        <f>(E6-F6)/(5)*(100)</f>
         <v>26.999999999999886</v>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
         <v>229.2</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="0"/>
+        <f>(E7-F7)/(5)*(100)</f>
         <v>2.0000000000004547</v>
       </c>
     </row>
@@ -2628,7 +2628,7 @@
         <v>227.2</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="0"/>
+        <f>(E8-F8)/(5)*(100)</f>
         <v>42.000000000000455</v>
       </c>
     </row>
@@ -2652,7 +2652,7 @@
         <v>228</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="0"/>
+        <f>(E9-F9)/(5)*(100)</f>
         <v>26.000000000000227</v>
       </c>
     </row>
@@ -2676,7 +2676,7 @@
         <v>226.6</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="0"/>
+        <f>(E10-F10)/(5)*(100)</f>
         <v>34.000000000000341</v>
       </c>
     </row>
@@ -2700,7 +2700,7 @@
         <v>224.3</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="0"/>
+        <f>(E11-F11)/(5)*(100)</f>
         <v>80</v>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
         <v>226.8</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="0"/>
+        <f>(E12-F12)/(5)*(100)</f>
         <v>30</v>
       </c>
     </row>
@@ -2748,7 +2748,7 @@
         <v>227.5</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="0"/>
+        <f>(E13-F13)/(5)*(100)</f>
         <v>10</v>
       </c>
     </row>
@@ -2772,7 +2772,7 @@
         <v>227.8</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="0"/>
+        <f>(E14-F14)/(5)*(100)</f>
         <v>3.9999999999997726</v>
       </c>
     </row>
@@ -2793,11 +2793,11 @@
         <v>229.9</v>
       </c>
       <c r="F15" s="1">
-        <v>230.7</v>
+        <v>226.4</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="0"/>
-        <v>-15.999999999999659</v>
+        <f>(E15-F15)/(5)*(100)</f>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2817,19 +2817,19 @@
         <v>229.9</v>
       </c>
       <c r="F16" s="1">
-        <v>226.4</v>
+        <v>228</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <f>(E16-F16)/(5)*(100)</f>
+        <v>38.000000000000114</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -2838,19 +2838,19 @@
         <v>16</v>
       </c>
       <c r="E17" s="1">
-        <v>229.9</v>
+        <v>228.4</v>
       </c>
       <c r="F17" s="1">
-        <v>228</v>
+        <v>227.1</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="0"/>
-        <v>38.000000000000114</v>
+        <f>(E17-F17)/(5)*(100)</f>
+        <v>26.000000000000227</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -2865,16 +2865,16 @@
         <v>228.4</v>
       </c>
       <c r="F18" s="1">
-        <v>227.1</v>
+        <v>228.4</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="0"/>
-        <v>26.000000000000227</v>
+        <f>(E18-F18)/(5)*(100)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -2889,19 +2889,19 @@
         <v>228.4</v>
       </c>
       <c r="F19" s="1">
-        <v>228.4</v>
+        <v>225</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>(E19-F19)/(5)*(100)</f>
+        <v>68.000000000000114</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
@@ -2910,19 +2910,19 @@
         <v>16</v>
       </c>
       <c r="E20" s="1">
-        <v>228.4</v>
+        <v>228.5</v>
       </c>
       <c r="F20" s="1">
-        <v>225</v>
+        <v>227.1</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="0"/>
-        <v>68.000000000000114</v>
+        <f>(E20-F20)/(5)*(100)</f>
+        <v>28.000000000000114</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -2937,64 +2937,64 @@
         <v>228.5</v>
       </c>
       <c r="F21" s="1">
-        <v>227.1</v>
+        <v>228.9</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="0"/>
-        <v>28.000000000000114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s">
+        <f>(E21-F21)/(5)*(100)</f>
+        <v>-8.0000000000001137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>3</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="C22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="2">
         <v>228.5</v>
       </c>
-      <c r="F22" s="1">
-        <v>228.9</v>
+      <c r="F22" s="2">
+        <v>227.4</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="0"/>
-        <v>-8.0000000000001137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>3</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="2">
-        <v>228.5</v>
-      </c>
-      <c r="F23" s="2">
-        <v>227.4</v>
+        <f>(E22-F22)/(5)*(100)</f>
+        <v>21.999999999999886</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="1">
+        <v>227.2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>225.2</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="0"/>
-        <v>21.999999999999886</v>
+        <f>(E23-F23)/(5)*(100)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -3009,19 +3009,19 @@
         <v>227.2</v>
       </c>
       <c r="F24" s="1">
-        <v>225.2</v>
+        <v>226.2</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f>(E24-F24)/(5)*(100)</f>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
@@ -3030,19 +3030,19 @@
         <v>17</v>
       </c>
       <c r="E25" s="1">
-        <v>227.2</v>
+        <v>227</v>
       </c>
       <c r="F25" s="1">
         <v>226.2</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>(E25-F25)/(5)*(100)</f>
+        <v>16.000000000000227</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
@@ -3057,19 +3057,19 @@
         <v>227</v>
       </c>
       <c r="F26" s="1">
-        <v>226.2</v>
+        <v>226.9</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="0"/>
-        <v>16.000000000000227</v>
+        <f>(E26-F26)/(5)*(100)</f>
+        <v>1.9999999999998863</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -3078,19 +3078,19 @@
         <v>17</v>
       </c>
       <c r="E27" s="1">
-        <v>227</v>
+        <v>228.7</v>
       </c>
       <c r="F27" s="1">
-        <v>226.9</v>
+        <v>227.4</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="0"/>
-        <v>1.9999999999998863</v>
+        <f>(E27-F27)/(5)*(100)</f>
+        <v>25.999999999999655</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -3105,16 +3105,16 @@
         <v>228.7</v>
       </c>
       <c r="F28" s="1">
-        <v>227.4</v>
+        <v>226.7</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="0"/>
-        <v>25.999999999999655</v>
+        <f>(E28-F28)/(5)*(100)</f>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
@@ -3129,19 +3129,19 @@
         <v>228.7</v>
       </c>
       <c r="F29" s="1">
-        <v>226.7</v>
+        <v>227</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f>(E29-F29)/(5)*(100)</f>
+        <v>33.999999999999773</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
@@ -3150,19 +3150,19 @@
         <v>17</v>
       </c>
       <c r="E30" s="1">
-        <v>228.7</v>
+        <v>229.3</v>
       </c>
       <c r="F30" s="1">
-        <v>227</v>
+        <v>227.6</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="0"/>
-        <v>33.999999999999773</v>
+        <f>(E30-F30)/(5)*(100)</f>
+        <v>34.000000000000341</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
@@ -3177,59 +3177,59 @@
         <v>229.3</v>
       </c>
       <c r="F31" s="1">
-        <v>227.6</v>
+        <v>228.8</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="0"/>
-        <v>34.000000000000341</v>
+        <f>(E31-F31)/(5)*(100)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E32" s="1">
-        <v>229.3</v>
+        <v>230.3</v>
       </c>
       <c r="F32" s="1">
-        <v>228.8</v>
+        <v>229.7</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>3</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="2">
-        <v>229.3</v>
-      </c>
-      <c r="F33" s="2">
-        <v>230.6</v>
+        <f>(E32-F32)/(5)*(100)</f>
+        <v>12.000000000000455</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1">
+        <v>230.3</v>
+      </c>
+      <c r="F33" s="1">
+        <v>227.3</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="0"/>
-        <v>-25.999999999999655</v>
+        <f>(E33-F33)/(5)*(100)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3237,7 +3237,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
         <v>18</v>
@@ -3246,14 +3246,14 @@
         <v>8</v>
       </c>
       <c r="E34" s="1">
-        <v>230.3</v>
+        <v>229</v>
       </c>
       <c r="F34" s="1">
-        <v>229.7</v>
+        <v>227.5</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="0"/>
-        <v>12.000000000000455</v>
+        <f>(E34-F34)/(5)*(100)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3261,7 +3261,7 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
         <v>18</v>
@@ -3270,19 +3270,19 @@
         <v>8</v>
       </c>
       <c r="E35" s="1">
-        <v>230.3</v>
+        <v>229</v>
       </c>
       <c r="F35" s="1">
-        <v>227.3</v>
+        <v>225.5</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <f>(E35-F35)/(5)*(100)</f>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
         <v>13</v>
@@ -3297,19 +3297,19 @@
         <v>229</v>
       </c>
       <c r="F36" s="1">
-        <v>227.5</v>
+        <v>226.5</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f>(E36-F36)/(5)*(100)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
@@ -3318,22 +3318,22 @@
         <v>8</v>
       </c>
       <c r="E37" s="1">
-        <v>229</v>
+        <v>229.5</v>
       </c>
       <c r="F37" s="1">
-        <v>225.5</v>
+        <v>228.4</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <f>(E37-F37)/(5)*(100)</f>
+        <v>21.999999999999886</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
@@ -3342,14 +3342,14 @@
         <v>8</v>
       </c>
       <c r="E38" s="1">
-        <v>229</v>
+        <v>229.5</v>
       </c>
       <c r="F38" s="1">
-        <v>226.5</v>
+        <v>228.6</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f>(E38-F38)/(5)*(100)</f>
+        <v>18.000000000000114</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3357,7 +3357,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
@@ -3366,14 +3366,14 @@
         <v>8</v>
       </c>
       <c r="E39" s="1">
-        <v>229.5</v>
+        <v>229.3</v>
       </c>
       <c r="F39" s="1">
-        <v>228.4</v>
+        <v>229</v>
       </c>
       <c r="G39" s="4">
-        <f t="shared" si="0"/>
-        <v>21.999999999999886</v>
+        <f>(E39-F39)/(5)*(100)</f>
+        <v>6.0000000000002274</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3381,7 +3381,7 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
@@ -3390,14 +3390,14 @@
         <v>8</v>
       </c>
       <c r="E40" s="1">
-        <v>229.5</v>
+        <v>229.3</v>
       </c>
       <c r="F40" s="1">
-        <v>228.6</v>
+        <v>227.4</v>
       </c>
       <c r="G40" s="4">
-        <f t="shared" si="0"/>
-        <v>18.000000000000114</v>
+        <f>(E40-F40)/(5)*(100)</f>
+        <v>38.000000000000114</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3405,23 +3405,23 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
         <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E41" s="1">
-        <v>229.3</v>
+        <v>228</v>
       </c>
       <c r="F41" s="1">
-        <v>229</v>
+        <v>224.3</v>
       </c>
       <c r="G41" s="4">
-        <f t="shared" si="0"/>
-        <v>6.0000000000002274</v>
+        <f>(E41-F41)/(5)*(100)</f>
+        <v>73.999999999999773</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3429,55 +3429,55 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
         <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E42" s="1">
-        <v>229.3</v>
+        <v>228</v>
       </c>
       <c r="F42" s="1">
-        <v>227.4</v>
+        <v>227.6</v>
       </c>
       <c r="G42" s="4">
-        <f t="shared" si="0"/>
-        <v>38.000000000000114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>3</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="2">
-        <v>229.3</v>
-      </c>
-      <c r="F43" s="2">
-        <v>230.3</v>
+        <f>(E42-F42)/(5)*(100)</f>
+        <v>8.0000000000001137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="1">
+        <v>231.4</v>
+      </c>
+      <c r="F43" s="1">
+        <v>224.8</v>
       </c>
       <c r="G43" s="4">
-        <f t="shared" si="0"/>
-        <v>-20</v>
+        <f>(E43-F43)/(5)*(100)</f>
+        <v>131.99999999999989</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
@@ -3486,22 +3486,22 @@
         <v>16</v>
       </c>
       <c r="E44" s="1">
-        <v>228</v>
+        <v>231.4</v>
       </c>
       <c r="F44" s="1">
-        <v>224.3</v>
+        <v>225</v>
       </c>
       <c r="G44" s="4">
-        <f t="shared" si="0"/>
-        <v>73.999999999999773</v>
+        <f>(E44-F44)/(5)*(100)</f>
+        <v>128.00000000000011</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
         <v>18</v>
@@ -3510,22 +3510,22 @@
         <v>16</v>
       </c>
       <c r="E45" s="1">
-        <v>228</v>
+        <v>231.75</v>
       </c>
       <c r="F45" s="1">
-        <v>230.7</v>
+        <v>231.8</v>
       </c>
       <c r="G45" s="4">
-        <f t="shared" si="0"/>
-        <v>-53.999999999999773</v>
+        <f>(E45-F45)/(5)*(100)</f>
+        <v>-1.0000000000002274</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
         <v>18</v>
@@ -3534,22 +3534,22 @@
         <v>16</v>
       </c>
       <c r="E46" s="1">
-        <v>228</v>
+        <v>231.75</v>
       </c>
       <c r="F46" s="1">
-        <v>227.6</v>
+        <v>227.3</v>
       </c>
       <c r="G46" s="4">
-        <f t="shared" si="0"/>
-        <v>8.0000000000001137</v>
+        <f>(E46-F46)/(5)*(100)</f>
+        <v>88.999999999999773</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
         <v>18</v>
@@ -3558,22 +3558,22 @@
         <v>16</v>
       </c>
       <c r="E47" s="1">
-        <v>231.4</v>
+        <v>231.75</v>
       </c>
       <c r="F47" s="1">
-        <v>224.8</v>
+        <v>231.2</v>
       </c>
       <c r="G47" s="4">
-        <f t="shared" si="0"/>
-        <v>131.99999999999989</v>
+        <f>(E47-F47)/(5)*(100)</f>
+        <v>11.000000000000227</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
@@ -3582,22 +3582,22 @@
         <v>16</v>
       </c>
       <c r="E48" s="1">
-        <v>231.4</v>
+        <v>230.5</v>
       </c>
       <c r="F48" s="1">
-        <v>225</v>
+        <v>229.2</v>
       </c>
       <c r="G48" s="4">
-        <f t="shared" si="0"/>
-        <v>128.00000000000011</v>
+        <f>(E48-F48)/(5)*(100)</f>
+        <v>26.000000000000227</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
         <v>18</v>
@@ -3606,118 +3606,118 @@
         <v>16</v>
       </c>
       <c r="E49" s="1">
-        <v>227.6</v>
+        <v>230.5</v>
       </c>
       <c r="F49" s="1">
-        <v>231.8</v>
+        <v>228.9</v>
       </c>
       <c r="G49" s="4">
-        <f t="shared" si="0"/>
-        <v>-84.000000000000341</v>
+        <f>(E49-F49)/(5)*(100)</f>
+        <v>31.999999999999883</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E50" s="1">
-        <v>227.6</v>
+        <v>230.1</v>
       </c>
       <c r="F50" s="1">
-        <v>227.3</v>
+        <v>230.3</v>
       </c>
       <c r="G50" s="4">
-        <f t="shared" si="0"/>
-        <v>5.9999999999996589</v>
+        <f>(E50-F50)/(5)*(100)</f>
+        <v>-4.0000000000003411</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E51" s="1">
-        <v>227.6</v>
+        <v>230.1</v>
       </c>
       <c r="F51" s="1">
-        <v>231.2</v>
+        <v>228.8</v>
       </c>
       <c r="G51" s="4">
-        <f t="shared" si="0"/>
-        <v>-71.999999999999886</v>
+        <f>(E51-F51)/(5)*(100)</f>
+        <v>25.999999999999655</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E52" s="1">
-        <v>230.5</v>
+        <v>230.1</v>
       </c>
       <c r="F52" s="1">
-        <v>229.2</v>
+        <v>225.4</v>
       </c>
       <c r="G52" s="4">
-        <f t="shared" si="0"/>
-        <v>26.000000000000227</v>
+        <f>(E52-F52)/(5)*(100)</f>
+        <v>93.999999999999773</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E53" s="1">
-        <v>230.5</v>
+        <v>230.1</v>
       </c>
       <c r="F53" s="1">
-        <v>228.9</v>
+        <v>227.4</v>
       </c>
       <c r="G53" s="4">
-        <f t="shared" si="0"/>
-        <v>31.999999999999883</v>
+        <f>(E53-F53)/(5)*(100)</f>
+        <v>53.999999999999773</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
         <v>18</v>
@@ -3729,19 +3729,19 @@
         <v>230.1</v>
       </c>
       <c r="F54" s="1">
-        <v>230.3</v>
+        <v>228.5</v>
       </c>
       <c r="G54" s="4">
-        <f t="shared" si="0"/>
-        <v>-4.0000000000003411</v>
+        <f>(E54-F54)/(5)*(100)</f>
+        <v>31.999999999999883</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C55" t="s">
         <v>18</v>
@@ -3753,19 +3753,19 @@
         <v>230.1</v>
       </c>
       <c r="F55" s="1">
-        <v>228.8</v>
+        <v>227</v>
       </c>
       <c r="G55" s="4">
-        <f t="shared" si="0"/>
-        <v>25.999999999999655</v>
+        <f>(E55-F55)/(5)*(100)</f>
+        <v>61.999999999999886</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
         <v>18</v>
@@ -3774,22 +3774,22 @@
         <v>17</v>
       </c>
       <c r="E56" s="1">
-        <v>230.1</v>
+        <v>229.1</v>
       </c>
       <c r="F56" s="1">
-        <v>225.4</v>
+        <v>225.5</v>
       </c>
       <c r="G56" s="4">
-        <f t="shared" si="0"/>
-        <v>93.999999999999773</v>
+        <f>(E56-F56)/(5)*(100)</f>
+        <v>71.999999999999886</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s">
         <v>18</v>
@@ -3798,22 +3798,22 @@
         <v>17</v>
       </c>
       <c r="E57" s="1">
-        <v>232</v>
+        <v>229.1</v>
       </c>
       <c r="F57" s="1">
-        <v>227.4</v>
+        <v>226.5</v>
       </c>
       <c r="G57" s="4">
-        <f t="shared" si="0"/>
-        <v>91.999999999999886</v>
+        <f>(E57-F57)/(5)*(100)</f>
+        <v>51.999999999999893</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
         <v>18</v>
@@ -3822,22 +3822,22 @@
         <v>17</v>
       </c>
       <c r="E58" s="1">
-        <v>232</v>
+        <v>229.1</v>
       </c>
       <c r="F58" s="1">
-        <v>228.5</v>
+        <v>228.9</v>
       </c>
       <c r="G58" s="4">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <f>(E58-F58)/(5)*(100)</f>
+        <v>3.9999999999997726</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
         <v>18</v>
@@ -3846,22 +3846,22 @@
         <v>17</v>
       </c>
       <c r="E59" s="1">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F59" s="1">
-        <v>227</v>
+        <v>228.9</v>
       </c>
       <c r="G59" s="4">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>(E59-F59)/(5)*(100)</f>
+        <v>41.999999999999886</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C60" t="s">
         <v>18</v>
@@ -3870,158 +3870,62 @@
         <v>17</v>
       </c>
       <c r="E60" s="1">
-        <v>229.1</v>
+        <v>231</v>
       </c>
       <c r="F60" s="1">
-        <v>225.5</v>
+        <v>227.7</v>
       </c>
       <c r="G60" s="4">
-        <f t="shared" si="0"/>
-        <v>71.999999999999886</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>2</v>
-      </c>
-      <c r="B61" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" t="s">
-        <v>17</v>
-      </c>
-      <c r="E61" s="1">
-        <v>229.1</v>
-      </c>
-      <c r="F61" s="1">
-        <v>226.5</v>
+        <f>(E60-F60)/(5)*(100)</f>
+        <v>66.000000000000227</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>3</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E61" s="2">
+        <v>231</v>
+      </c>
+      <c r="F61" s="2">
+        <v>228.2</v>
       </c>
       <c r="G61" s="4">
-        <f t="shared" si="0"/>
-        <v>51.999999999999893</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>3</v>
-      </c>
-      <c r="B62" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" t="s">
-        <v>17</v>
-      </c>
-      <c r="E62" s="1">
-        <v>229.1</v>
-      </c>
-      <c r="F62" s="1">
-        <v>228.9</v>
-      </c>
-      <c r="G62" s="4">
-        <f t="shared" si="0"/>
-        <v>3.9999999999997726</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>1</v>
-      </c>
-      <c r="B63" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" t="s">
-        <v>17</v>
-      </c>
-      <c r="E63" s="1">
-        <v>231</v>
-      </c>
-      <c r="F63" s="1">
-        <v>228.9</v>
-      </c>
-      <c r="G63" s="4">
-        <f t="shared" si="0"/>
-        <v>41.999999999999886</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>2</v>
-      </c>
-      <c r="B64" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" t="s">
-        <v>17</v>
-      </c>
-      <c r="E64" s="1">
-        <v>231</v>
-      </c>
-      <c r="F64" s="1">
-        <v>227.7</v>
-      </c>
-      <c r="G64" s="4">
-        <f t="shared" si="0"/>
-        <v>66.000000000000227</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>3</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E65" s="2">
-        <v>231</v>
-      </c>
-      <c r="F65" s="2">
-        <v>228.2</v>
-      </c>
-      <c r="G65" s="4">
-        <f t="shared" si="0"/>
+        <f>(E61-F61)/(5)*(100)</f>
         <v>56.000000000000227</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="7:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G73" s="2"/>
     </row>
   </sheetData>
@@ -4033,8 +3937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6164590A-D0FF-4286-85BB-B4F5F8A9B032}">
   <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4072,7 +3976,6 @@
       <c r="E2" s="1">
         <v>16</v>
       </c>
-      <c r="N2" s="1"/>
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -4091,7 +3994,6 @@
       <c r="E3" s="1">
         <v>22</v>
       </c>
-      <c r="N3" s="1"/>
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -4110,7 +4012,6 @@
       <c r="E4" s="1">
         <v>53</v>
       </c>
-      <c r="N4" s="1"/>
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -4129,7 +4030,6 @@
       <c r="E5" s="4">
         <v>-1</v>
       </c>
-      <c r="N5" s="1"/>
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -4148,7 +4048,6 @@
       <c r="E6" s="1">
         <v>27</v>
       </c>
-      <c r="N6" s="1"/>
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -4167,7 +4066,6 @@
       <c r="E7" s="1">
         <v>2</v>
       </c>
-      <c r="N7" s="1"/>
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -4186,7 +4084,6 @@
       <c r="E8" s="1">
         <v>42</v>
       </c>
-      <c r="N8" s="1"/>
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -4205,7 +4102,6 @@
       <c r="E9" s="1">
         <v>26</v>
       </c>
-      <c r="N9" s="1"/>
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -4224,7 +4120,6 @@
       <c r="E10" s="1">
         <v>34</v>
       </c>
-      <c r="N10" s="1"/>
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -4243,7 +4138,6 @@
       <c r="E11" s="1">
         <v>80</v>
       </c>
-      <c r="N11" s="1"/>
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -4262,7 +4156,6 @@
       <c r="E12" s="1">
         <v>30</v>
       </c>
-      <c r="N12" s="1"/>
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -4281,7 +4174,6 @@
       <c r="E13" s="1">
         <v>10</v>
       </c>
-      <c r="N13" s="1"/>
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
@@ -4300,7 +4192,6 @@
       <c r="E14" s="1">
         <v>4</v>
       </c>
-      <c r="N14" s="1"/>
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -4316,10 +4207,9 @@
       <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="4">
-        <v>-16</v>
-      </c>
-      <c r="N15" s="1"/>
+      <c r="E15" s="1">
+        <v>70</v>
+      </c>
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -4336,15 +4226,15 @@
         <v>16</v>
       </c>
       <c r="E16" s="1">
-        <v>70</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>12</v>
@@ -4353,12 +4243,12 @@
         <v>16</v>
       </c>
       <c r="E17" s="1">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
@@ -4370,12 +4260,12 @@
         <v>16</v>
       </c>
       <c r="E18" s="1">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
@@ -4387,15 +4277,15 @@
         <v>16</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
         <v>12</v>
@@ -4404,12 +4294,12 @@
         <v>16</v>
       </c>
       <c r="E20" s="1">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
@@ -4420,13 +4310,13 @@
       <c r="D21" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="1">
-        <v>28</v>
+      <c r="E21" s="4">
+        <v>-8</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -4438,29 +4328,29 @@
         <v>16</v>
       </c>
       <c r="E22" s="1">
-        <v>-8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E23" s="1">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -4472,15 +4362,15 @@
         <v>17</v>
       </c>
       <c r="E24" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
         <v>12</v>
@@ -4489,12 +4379,12 @@
         <v>17</v>
       </c>
       <c r="E25" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
@@ -4506,15 +4396,15 @@
         <v>17</v>
       </c>
       <c r="E26" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -4523,12 +4413,12 @@
         <v>17</v>
       </c>
       <c r="E27" s="1">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -4540,12 +4430,12 @@
         <v>17</v>
       </c>
       <c r="E28" s="1">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
@@ -4557,15 +4447,15 @@
         <v>17</v>
       </c>
       <c r="E29" s="1">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
         <v>12</v>
@@ -4579,7 +4469,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
@@ -4591,41 +4481,41 @@
         <v>17</v>
       </c>
       <c r="E31" s="1">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E32" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="4">
-        <v>-26</v>
+        <v>8</v>
+      </c>
+      <c r="E33" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -4633,7 +4523,7 @@
         <v>1</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
         <v>18</v>
@@ -4642,7 +4532,7 @@
         <v>8</v>
       </c>
       <c r="E34" s="1">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -4650,7 +4540,7 @@
         <v>2</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
         <v>18</v>
@@ -4659,12 +4549,12 @@
         <v>8</v>
       </c>
       <c r="E35" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B36" t="s">
         <v>13</v>
@@ -4676,15 +4566,15 @@
         <v>8</v>
       </c>
       <c r="E36" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
         <v>18</v>
@@ -4693,15 +4583,15 @@
         <v>8</v>
       </c>
       <c r="E37" s="1">
-        <v>70</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
@@ -4710,7 +4600,7 @@
         <v>8</v>
       </c>
       <c r="E38" s="1">
-        <v>50</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -4718,7 +4608,7 @@
         <v>1</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C39" t="s">
         <v>18</v>
@@ -4727,7 +4617,7 @@
         <v>8</v>
       </c>
       <c r="E39" s="1">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -4735,7 +4625,7 @@
         <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
@@ -4744,7 +4634,7 @@
         <v>8</v>
       </c>
       <c r="E40" s="1">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -4752,16 +4642,16 @@
         <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C41" t="s">
         <v>18</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E41" s="1">
-        <v>6</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -4769,41 +4659,41 @@
         <v>2</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C42" t="s">
         <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E42" s="1">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
         <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="4">
-        <v>-20</v>
+        <v>16</v>
+      </c>
+      <c r="E43" s="1">
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C44" t="s">
         <v>18</v>
@@ -4812,15 +4702,15 @@
         <v>16</v>
       </c>
       <c r="E44" s="1">
-        <v>74</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
         <v>18</v>
@@ -4828,16 +4718,16 @@
       <c r="D45" t="s">
         <v>16</v>
       </c>
-      <c r="E45" s="4">
-        <v>-54</v>
+      <c r="E45" s="1">
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
         <v>18</v>
@@ -4846,15 +4736,15 @@
         <v>16</v>
       </c>
       <c r="E46" s="1">
-        <v>8</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
         <v>18</v>
@@ -4863,15 +4753,15 @@
         <v>16</v>
       </c>
       <c r="E47" s="1">
-        <v>132</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
@@ -4880,15 +4770,15 @@
         <v>16</v>
       </c>
       <c r="E48" s="1">
-        <v>128</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
         <v>18</v>
@@ -4897,83 +4787,83 @@
         <v>16</v>
       </c>
       <c r="E49" s="1">
-        <v>-84</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" s="1">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="E50" s="4">
+        <v>-4</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" s="4">
-        <v>-72</v>
+        <v>17</v>
+      </c>
+      <c r="E51" s="1">
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E52" s="1">
-        <v>26</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E53" s="1">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
         <v>18</v>
@@ -4981,16 +4871,16 @@
       <c r="D54" t="s">
         <v>17</v>
       </c>
-      <c r="E54" s="4">
-        <v>-4</v>
+      <c r="E54" s="1">
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C55" t="s">
         <v>18</v>
@@ -4999,15 +4889,15 @@
         <v>17</v>
       </c>
       <c r="E55" s="1">
-        <v>26</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
         <v>18</v>
@@ -5016,15 +4906,15 @@
         <v>17</v>
       </c>
       <c r="E56" s="1">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s">
         <v>18</v>
@@ -5033,15 +4923,15 @@
         <v>17</v>
       </c>
       <c r="E57" s="1">
-        <v>92</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
         <v>18</v>
@@ -5050,15 +4940,15 @@
         <v>17</v>
       </c>
       <c r="E58" s="1">
-        <v>70</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C59" t="s">
         <v>18</v>
@@ -5067,15 +4957,15 @@
         <v>17</v>
       </c>
       <c r="E59" s="1">
-        <v>100</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C60" t="s">
         <v>18</v>
@@ -5084,15 +4974,15 @@
         <v>17</v>
       </c>
       <c r="E60" s="1">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
         <v>18</v>
@@ -5101,76 +4991,24 @@
         <v>17</v>
       </c>
       <c r="E61" s="1">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>3</v>
-      </c>
-      <c r="B62" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" t="s">
-        <v>17</v>
-      </c>
-      <c r="E62" s="1">
-        <v>4</v>
-      </c>
+      <c r="A62" s="1"/>
+      <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>1</v>
-      </c>
-      <c r="B63" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" t="s">
-        <v>17</v>
-      </c>
-      <c r="E63" s="1">
-        <v>42</v>
-      </c>
+      <c r="A63" s="1"/>
+      <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>2</v>
-      </c>
-      <c r="B64" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" t="s">
-        <v>17</v>
-      </c>
-      <c r="E64" s="1">
-        <v>66</v>
-      </c>
+      <c r="A64" s="1"/>
+      <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>3</v>
-      </c>
-      <c r="B65" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" t="s">
-        <v>17</v>
-      </c>
-      <c r="E65" s="1">
-        <v>56</v>
-      </c>
+      <c r="A65" s="1"/>
+      <c r="E65" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
